--- a/Marketing/tennessee.roomme.xlsx
+++ b/Marketing/tennessee.roomme.xlsx
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/tennessee.roomme.xlsx
+++ b/Marketing/tennessee.roomme.xlsx
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">

--- a/Marketing/tennessee.roomme.xlsx
+++ b/Marketing/tennessee.roomme.xlsx
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">

--- a/Marketing/tennessee.roomme.xlsx
+++ b/Marketing/tennessee.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,12 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -452,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing/tennessee.roomme.xlsx
+++ b/Marketing/tennessee.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -436,10 +448,4620 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>kinleycline</t>
+          <t>trey_mcglaun</t>
         </is>
       </c>
       <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>houston__05</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>melania.meyers</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mateatollison</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>annaatthomas</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>amanda.mollica</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>_ashlyn_leann_</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>smilindazy</t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>darden_powers</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kelsi.cowles</t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>maddie_april_35</t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>abbyzech</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>elsa.feld</t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>inexcel3</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>delaneyyhood</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>grace_kozel</t>
+        </is>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>_emma.bell</t>
+        </is>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ennyswag</t>
+        </is>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>brenna_settar</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>reese.lanier</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>giannadellasantina</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>lilmargue</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>isabella_ww2</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>elizabeth_r_kiser</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jo.sander44</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ella_rpeterson</t>
+        </is>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>jerseibradshaw</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nat__603</t>
+        </is>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>_madelynbunch_</t>
+        </is>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zofialipinski</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sierra_rva</t>
+        </is>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>zack.hansen_</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattbrodd</t>
+        </is>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>elizabethlicitraa</t>
+        </is>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>xcreat.karina</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>smaceshp</t>
+        </is>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>trinity.gandy</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>connor.fredenberg</t>
+        </is>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>elizabethamillerr</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>jordan_mcdede</t>
+        </is>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>audrey_burnell</t>
+        </is>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>emmaaarobertson</t>
+        </is>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>luke.gutmann74</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sophia_rudy</t>
+        </is>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>caseybalkir</t>
+        </is>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>korey.a.smith</t>
+        </is>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>miacarps</t>
+        </is>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ellitrager</t>
+        </is>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>charly_lever</t>
+        </is>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>gotennessee647</t>
+        </is>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>hadleylynch_</t>
+        </is>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>jaylaaa.ford</t>
+        </is>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ben.conte_9</t>
+        </is>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>clarisa_lander</t>
+        </is>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>layne.knightt</t>
+        </is>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mikahomalley</t>
+        </is>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ivonnalatek</t>
+        </is>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>carlyschiffl</t>
+        </is>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>reidkircher</t>
+        </is>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>alicia.shank.7</t>
+        </is>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>braciebohaboy</t>
+        </is>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>emmamiyamoto</t>
+        </is>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>_bayleecrouse</t>
+        </is>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>elliewoodison</t>
+        </is>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>graceritze_</t>
+        </is>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sophia_on_set</t>
+        </is>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>magh.ie</t>
+        </is>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>carina_lefko</t>
+        </is>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ella_palmerr</t>
+        </is>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>gabi.stokes</t>
+        </is>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>addy_belle07</t>
+        </is>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>luellawalterss</t>
+        </is>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ksetzler</t>
+        </is>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>fauyeung03</t>
+        </is>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rachel.erich</t>
+        </is>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ansley.walkerrr</t>
+        </is>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>clara.head</t>
+        </is>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>joshj1678</t>
+        </is>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>athenajewell</t>
+        </is>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>abbyblakeee</t>
+        </is>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kendyl_calabrese</t>
+        </is>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>jt_keller58</t>
+        </is>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>lisacrawmwell</t>
+        </is>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>jadavis_6</t>
+        </is>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>joe_q_truth</t>
+        </is>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>_nicolevitullo_</t>
+        </is>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>maddiesackenheim</t>
+        </is>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>alston_euart05</t>
+        </is>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>katelynhiller</t>
+        </is>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>eva.reaper</t>
+        </is>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>_madison.ferguson</t>
+        </is>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ellaberakovich</t>
+        </is>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>helenkinggg</t>
+        </is>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>lillyyswann</t>
+        </is>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>tyndalltalley</t>
+        </is>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>aasthaozaa</t>
+        </is>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>madilyncgray</t>
+        </is>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>jj.pomrink</t>
+        </is>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>molsmom</t>
+        </is>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>christian_vilter</t>
+        </is>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>emmacarlstrom_</t>
+        </is>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>nevewilber.27</t>
+        </is>
+      </c>
+      <c r="B103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>linahamashuk</t>
+        </is>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>oliviaraeharris</t>
+        </is>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>masonharris0415</t>
+        </is>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>drew_c05</t>
+        </is>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ella.wenck</t>
+        </is>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>livmaes</t>
+        </is>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>carolinek.5</t>
+        </is>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>sarah_lowe23</t>
+        </is>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>hannahsteffgen</t>
+        </is>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ansleynugent</t>
+        </is>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>colin.williams_</t>
+        </is>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ericchtilianov</t>
+        </is>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>amelia.whipple</t>
+        </is>
+      </c>
+      <c r="B116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>lukecottrill</t>
+        </is>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>brooke_burgin</t>
+        </is>
+      </c>
+      <c r="B118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>lillydrummondd</t>
+        </is>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>carpenter.chloe</t>
+        </is>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ashlyn.navis</t>
+        </is>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>will.osterholm</t>
+        </is>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>nia.klug</t>
+        </is>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>nicholas.lulla</t>
+        </is>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ashleylordi</t>
+        </is>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>alana.mannn</t>
+        </is>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>margaretanne02</t>
+        </is>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>tate_pratt</t>
+        </is>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>alyssa.clark18</t>
+        </is>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>brinklee.stegall</t>
+        </is>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>abby_huffaker</t>
+        </is>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>triyapatel1</t>
+        </is>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ellakeyss</t>
+        </is>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>tonovowell</t>
+        </is>
+      </c>
+      <c r="B134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>camden_kiefer</t>
+        </is>
+      </c>
+      <c r="B135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>torimorrisonn</t>
+        </is>
+      </c>
+      <c r="B136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>katiedetoro</t>
+        </is>
+      </c>
+      <c r="B137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>malindacarney616</t>
+        </is>
+      </c>
+      <c r="B138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>genevieve_bobb_</t>
+        </is>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>malone.mckinley</t>
+        </is>
+      </c>
+      <c r="B140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>gracedouty</t>
+        </is>
+      </c>
+      <c r="B141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>jirehbermoy</t>
+        </is>
+      </c>
+      <c r="B142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>max_tebben</t>
+        </is>
+      </c>
+      <c r="B143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>carolinee_bond</t>
+        </is>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>raleigh_kotzker</t>
+        </is>
+      </c>
+      <c r="B145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>aavagallo</t>
+        </is>
+      </c>
+      <c r="B146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>howell.audrey</t>
+        </is>
+      </c>
+      <c r="B147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>liv_burghard</t>
+        </is>
+      </c>
+      <c r="B148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>calebdevore11</t>
+        </is>
+      </c>
+      <c r="B149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>audreypoulos</t>
+        </is>
+      </c>
+      <c r="B150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>alliem1900</t>
+        </is>
+      </c>
+      <c r="B151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>katelyn.wilhelm</t>
+        </is>
+      </c>
+      <c r="B152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>bex_3333</t>
+        </is>
+      </c>
+      <c r="B153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>braden_lesage</t>
+        </is>
+      </c>
+      <c r="B154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>cam_engesser</t>
+        </is>
+      </c>
+      <c r="B155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>prestonsolimine</t>
+        </is>
+      </c>
+      <c r="B156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>michmischley</t>
+        </is>
+      </c>
+      <c r="B157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>tommy_smelser</t>
+        </is>
+      </c>
+      <c r="B158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ishani.patel_</t>
+        </is>
+      </c>
+      <c r="B159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>juliahinson_</t>
+        </is>
+      </c>
+      <c r="B160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ella.sureck</t>
+        </is>
+      </c>
+      <c r="B161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>carley_bowman</t>
+        </is>
+      </c>
+      <c r="B162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>leslie.chalmers</t>
+        </is>
+      </c>
+      <c r="B163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>carsonsmith2244</t>
+        </is>
+      </c>
+      <c r="B164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>casityb</t>
+        </is>
+      </c>
+      <c r="B165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>_carolinewesterman</t>
+        </is>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>marraparker</t>
+        </is>
+      </c>
+      <c r="B167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>bethmyers__</t>
+        </is>
+      </c>
+      <c r="B168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>mykenzie.brooke</t>
+        </is>
+      </c>
+      <c r="B169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>nate.eubank</t>
+        </is>
+      </c>
+      <c r="B170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>marie.paz3</t>
+        </is>
+      </c>
+      <c r="B171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>emmy_10.30</t>
+        </is>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>peytonbmiller</t>
+        </is>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>emma_justine10</t>
+        </is>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>kate.l.bernard</t>
+        </is>
+      </c>
+      <c r="B175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>bellabesner</t>
+        </is>
+      </c>
+      <c r="B176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>thall16_</t>
+        </is>
+      </c>
+      <c r="B177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>alliedwards</t>
+        </is>
+      </c>
+      <c r="B178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>leary.sharon</t>
+        </is>
+      </c>
+      <c r="B179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>lilysheidyyy</t>
+        </is>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ellamajoli</t>
+        </is>
+      </c>
+      <c r="B181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>kacey.reavis</t>
+        </is>
+      </c>
+      <c r="B182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ellaalevy</t>
+        </is>
+      </c>
+      <c r="B183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>janestrong__</t>
+        </is>
+      </c>
+      <c r="B184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>sydney.mia56</t>
+        </is>
+      </c>
+      <c r="B185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>sarah._potts</t>
+        </is>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>harper_sinha</t>
+        </is>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ashley.carlson7</t>
+        </is>
+      </c>
+      <c r="B188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>sophie.hall2</t>
+        </is>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>emerson_528</t>
+        </is>
+      </c>
+      <c r="B190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>kimberly.alanso</t>
+        </is>
+      </c>
+      <c r="B191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>leigh.jones2016</t>
+        </is>
+      </c>
+      <c r="B192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>maebygreatens</t>
+        </is>
+      </c>
+      <c r="B193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>amyhalligan</t>
+        </is>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>mbuffaloe22</t>
+        </is>
+      </c>
+      <c r="B195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>cory1.220</t>
+        </is>
+      </c>
+      <c r="B196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>jennamerigold</t>
+        </is>
+      </c>
+      <c r="B197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>benroth84</t>
+        </is>
+      </c>
+      <c r="B198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>riley_drinnon</t>
+        </is>
+      </c>
+      <c r="B199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>hoomom2b</t>
+        </is>
+      </c>
+      <c r="B200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>madelynlyons_</t>
+        </is>
+      </c>
+      <c r="B201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>lizwilliams06</t>
+        </is>
+      </c>
+      <c r="B202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>bbellakutz</t>
+        </is>
+      </c>
+      <c r="B203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>lola_bogwill</t>
+        </is>
+      </c>
+      <c r="B204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>emma.rosse</t>
+        </is>
+      </c>
+      <c r="B205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>emmilyyyjaneee</t>
+        </is>
+      </c>
+      <c r="B206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>oliviaeskew5</t>
+        </is>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>emma_haynie_</t>
+        </is>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>jackson.townes</t>
+        </is>
+      </c>
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>kanothenano</t>
+        </is>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>_emmacline</t>
+        </is>
+      </c>
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>charlottemagda_</t>
+        </is>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>hopeeownby</t>
+        </is>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>owenbonack</t>
+        </is>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>sallyabe75</t>
+        </is>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>brynn.bowman</t>
+        </is>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>charliepthomas18</t>
+        </is>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>samuel_lee97</t>
+        </is>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>utk_delts</t>
+        </is>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>owensu11ivan</t>
+        </is>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ava.kostka</t>
+        </is>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>joyannah26</t>
+        </is>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>sarestanley</t>
+        </is>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>kendall.jordan3</t>
+        </is>
+      </c>
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>bri_l05</t>
+        </is>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>darrenbwilson</t>
+        </is>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>rubbert_pastory</t>
+        </is>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>connorsavage22</t>
+        </is>
+      </c>
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>itsnat_ross</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>avagreer_</t>
+        </is>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>sophiaknasel</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ellieekatee_</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>theeschroeder</t>
+        </is>
+      </c>
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>olivia_blakelock</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>_bellastonee</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>jayce_fondren</t>
+        </is>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>yuhnysheld</t>
+        </is>
+      </c>
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>lucydempsey_</t>
+        </is>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>_ashleymoonn_</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>nataliavdz1</t>
+        </is>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>chloehubert_</t>
+        </is>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>lillianhulls</t>
+        </is>
+      </c>
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>atimelordslibrary</t>
+        </is>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>m.a.d.d.i.e_ellis</t>
+        </is>
+      </c>
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>nlk_iatridis</t>
+        </is>
+      </c>
+      <c r="B245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>isabella_robertson__</t>
+        </is>
+      </c>
+      <c r="B246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>elaynaboeh</t>
+        </is>
+      </c>
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>anna.dickson_</t>
+        </is>
+      </c>
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>knox.lounge</t>
+        </is>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>maddyehn</t>
+        </is>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>hermon.noah</t>
+        </is>
+      </c>
+      <c r="B251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>haley.onwiler</t>
+        </is>
+      </c>
+      <c r="B252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>chris_albert47</t>
+        </is>
+      </c>
+      <c r="B253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>tyordonez00</t>
+        </is>
+      </c>
+      <c r="B254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>oliv_y6</t>
+        </is>
+      </c>
+      <c r="B255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>reece.rothwell</t>
+        </is>
+      </c>
+      <c r="B256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>beccalindler</t>
+        </is>
+      </c>
+      <c r="B257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>addison__carpenter</t>
+        </is>
+      </c>
+      <c r="B258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>t_krueger0</t>
+        </is>
+      </c>
+      <c r="B259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>reagan915</t>
+        </is>
+      </c>
+      <c r="B260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>annemariesempier</t>
+        </is>
+      </c>
+      <c r="B261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>siriaamott</t>
+        </is>
+      </c>
+      <c r="B262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>abbyhassell_</t>
+        </is>
+      </c>
+      <c r="B263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>jesslitster_</t>
+        </is>
+      </c>
+      <c r="B264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>wright.soph</t>
+        </is>
+      </c>
+      <c r="B265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>adie_leiann</t>
+        </is>
+      </c>
+      <c r="B266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>b.hforbes</t>
+        </is>
+      </c>
+      <c r="B267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>pebbleschestnut</t>
+        </is>
+      </c>
+      <c r="B268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>olivialpoole</t>
+        </is>
+      </c>
+      <c r="B269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>rosemary.leblanc</t>
+        </is>
+      </c>
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>mollie_brinkley</t>
+        </is>
+      </c>
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>izzykistler19</t>
+        </is>
+      </c>
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>hannah_cremins5</t>
+        </is>
+      </c>
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>emmalenz333</t>
+        </is>
+      </c>
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>maya.wije</t>
+        </is>
+      </c>
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>rielleblasi</t>
+        </is>
+      </c>
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>emily_ovella</t>
+        </is>
+      </c>
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>keener.knox</t>
+        </is>
+      </c>
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>sarahkrupp17</t>
+        </is>
+      </c>
+      <c r="B279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>emmahensley6</t>
+        </is>
+      </c>
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>tracigwill</t>
+        </is>
+      </c>
+      <c r="B281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>amanda_butner2</t>
+        </is>
+      </c>
+      <c r="B282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>katie.afshar</t>
+        </is>
+      </c>
+      <c r="B283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>benjamin.bbrowning</t>
+        </is>
+      </c>
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>vivibohmer</t>
+        </is>
+      </c>
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>rowan__richardson</t>
+        </is>
+      </c>
+      <c r="B286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>andiedanner</t>
+        </is>
+      </c>
+      <c r="B287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>abbyy.austinn</t>
+        </is>
+      </c>
+      <c r="B288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>taylorfaustt</t>
+        </is>
+      </c>
+      <c r="B289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>gusmay10</t>
+        </is>
+      </c>
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>m_horkan6</t>
+        </is>
+      </c>
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>laceyrrust</t>
+        </is>
+      </c>
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>lily.sheldon</t>
+        </is>
+      </c>
+      <c r="B293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>madeline_drape</t>
+        </is>
+      </c>
+      <c r="B294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>lauren.burnett_</t>
+        </is>
+      </c>
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>katherinemccauleyy</t>
+        </is>
+      </c>
+      <c r="B296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>jamesfowlerva</t>
+        </is>
+      </c>
+      <c r="B297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>kenzielayneb</t>
+        </is>
+      </c>
+      <c r="B298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>_delrae</t>
+        </is>
+      </c>
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>harper_rehmann</t>
+        </is>
+      </c>
+      <c r="B300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>averyr.lee</t>
+        </is>
+      </c>
+      <c r="B301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>oliviademarcus</t>
+        </is>
+      </c>
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>justin.time33</t>
+        </is>
+      </c>
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>savannahhaughie</t>
+        </is>
+      </c>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>madi.bowlin</t>
+        </is>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>abs_mattb</t>
+        </is>
+      </c>
+      <c r="B306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>avery.tromm</t>
+        </is>
+      </c>
+      <c r="B307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>laurennkellerr</t>
+        </is>
+      </c>
+      <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>lizziehavey</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>maddymetzgerr</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>willblevins</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>nolynujvari</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>madsurowiec_</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>avaabryson</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>kayla_laws_</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>joellleee.j</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>avaweebe</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>orangesleeper</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>viannaromeiro</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>carly_henry24</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>elizabethfinee</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>josiebrumley</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>lucycalvillo_</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>lernad4</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>jlorent06</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ycde1974</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>a_cul1004</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>juliannamalickk</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>sampeterss</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>allielagowski</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>kate.taylorrrrr</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>gabbyy_meade</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>elladando</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>nate.stewart24</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>paul_siyoum</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>avaryvo</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>ariella._j</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>carsonhamilton_</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>sydney.mcgaughey</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>colinbelshaw24</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>gracynhope</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>anna_lee_a</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>_dakotaduncan</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>artemisia.amelia</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>katebolio</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>willrankin_</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>mollie.mcbrayer</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>laurenkadin</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https.erynnn</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>grace_pritch</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>sophiehyn3s</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>marcheskie829</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>luke_attal</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>chloelizstewart</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>zoeoliviaa__</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>gracee_mitchelll</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>tjminsky</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>tduncan_10</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>kendallthornberry</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>evelyn._mcneeley</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>maddoxprichard</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>hm_o13</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>katie_babanikas</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>lolafrencl</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>briannaaudrey21</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>sophiavenit</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>savannahbradley__</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>soph_aure</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>imsashacadena</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>k_delotto</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>seth_adams72</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>prachipatel4</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>josiesego</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ay4nnas</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>pierceemcgee</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>rbritschge</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>evan_gorrell</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>kinzienovakk</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ellaa.chin</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>grabowstella</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>taylormaness82</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>karlimacrides</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>lindseyygonzalezz</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>elenafilbert_</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>mayanorcrosss</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>annagrace_lynn</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>jack.mcclanahan105</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>raegank_cox</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>its_siyapatel</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>sofiahcoppolaa</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>_amanda.paredes_</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>edenp0well</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>utkgreeklife</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>kaleigh.flanagan</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>katebfrancee</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ryleamcnamara</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>alexafiricano</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>natalieabsherr</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>beckypaynenalley</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>harpersilver</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>maryfrancesk</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>libbyhardinnn</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>marknagi23</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>cadenthewiz</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>kiera.feagans</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>_shelbybelanger</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>thebenkane__</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>gennie.fulford</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>kyleigh.colvin</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>sallywilliams921</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>sofia.wallace_</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>lilymbrooks_</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>samgruitch</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>caroline.arnold1</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>katyreesee</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>josh.dinkel</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>skylar_zug10</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>not_sean11</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>katelyn.huster</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>jana.kunasegar</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>lauren.s.11</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>fi.caputo</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>avacdimarco</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>miabellizzie_</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>kara.krause25</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>jaredi254</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>charlottesaunderss</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>sarasophia_honey</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>sophie_dean_</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>grady.j.forslund</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>sydneylang</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>madelynmall</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>abbey.dumas</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>marissa.frazierr</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ashawntilanae</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>kennedymays_</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>mckennacupit</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>isabellaambrosino_</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>lanajackmann</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>judebueno</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>elianna.matuszewski</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>katetaggart_</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>natalie.knudson</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>maybe.its.miki</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>reagan.g.murphy</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>connorlitt1e</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>hmcknight70</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>marrisjoe69</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>natalieprestegaard</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>luciassaez</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>mialacivita</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>gigi_shaughnessy</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>lauren.hays_</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>scatbee01</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>mollyywade</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>junevwhite</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>aubreyallender_</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>_elise.legault</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>anniehutchens1</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>emma.culbreth</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>meghan.guilbeault</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>simonepardasani</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>rwilliams0729</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
         <v>0</v>
       </c>
     </row>
